--- a/GraduatedStudent.xlsx
+++ b/GraduatedStudent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDULLA\Desktop\barForUHB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5EE63-28A4-4DCF-869B-1C3ACC0B8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBEAE73-889A-4812-9727-7EE4D4C4CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1110" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>mr.abdullah.faleh@gmail.com</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>abduilehfaleh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -385,12 +373,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="B6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,26 +391,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{23FD6C5B-5C08-411F-9E92-676DBBC6FCE7}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A2646794-B01A-43E4-9C10-EFF40953066C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>